--- a/TestData/TestDataMagento.xlsx
+++ b/TestData/TestDataMagento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Savalas Pillay\PycharmProjects\pythonProject2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation_Testing\Robotframework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA0247-E1A5-4049-91BB-CC89E4F56D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3880FE24-65E4-491C-9502-764DB0F5CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F71068C1-33EA-4851-9DFA-9357B21EB659}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F71068C1-33EA-4851-9DFA-9357B21EB659}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>${TESTNAME}</t>
   </si>
@@ -53,9 +53,6 @@
     <t>pussword</t>
   </si>
   <si>
-    <t xml:space="preserve"> Successfully</t>
-  </si>
-  <si>
     <t>${FIRSTNAME}</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>King123!</t>
   </si>
   <si>
-    <t xml:space="preserve"> With No Email</t>
-  </si>
-  <si>
     <t>johnny@gmail.com</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Ybecbwkbc</t>
   </si>
   <si>
-    <t>outfit.</t>
-  </si>
-  <si>
     <t>Ubcwjkwc</t>
   </si>
   <si>
@@ -239,31 +230,52 @@
     <t>P@ssword</t>
   </si>
   <si>
-    <t>advice-required-entry-email</t>
-  </si>
-  <si>
     <t>Incorrect Password</t>
   </si>
   <si>
-    <t>savalas.pillay@gmail.com</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
     <t>Invalid login or password.</t>
   </si>
   <si>
     <t>With No Password</t>
   </si>
   <si>
-    <t>angus@gmail.com</t>
-  </si>
-  <si>
     <t>TV</t>
   </si>
   <si>
     <t>Samsung LCD</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>required-entry-email</t>
+  </si>
+  <si>
+    <t>required-entry-pass</t>
+  </si>
+  <si>
+    <t>test.test01@gmail.com</t>
+  </si>
+  <si>
+    <t>Successfully</t>
+  </si>
+  <si>
+    <t>test01</t>
+  </si>
+  <si>
+    <t>test.test01</t>
+  </si>
+  <si>
+    <t>test.test@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>${Scenario}</t>
   </si>
 </sst>
 </file>
@@ -293,15 +305,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -309,15 +327,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -653,82 +687,82 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -737,131 +771,131 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>60</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -881,108 +915,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4231C43-8527-433C-895B-45C70E210DB7}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{2968EA02-5073-47B2-9F4E-9DD55C8FA957}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{E4C7E8CB-DC32-4A0D-B99B-B5C100B0EEE5}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{5FA6A144-8599-4747-B394-7C4467CBA0F7}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{8F18071D-1058-4010-A5E8-A6A715E7FB94}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{2968EA02-5073-47B2-9F4E-9DD55C8FA957}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{E4C7E8CB-DC32-4A0D-B99B-B5C100B0EEE5}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{5FA6A144-8599-4747-B394-7C4467CBA0F7}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{8F18071D-1058-4010-A5E8-A6A715E7FB94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1014,33 +1063,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1057,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002B0F1F-6895-4059-A6A0-E2D8F538398A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,33 +1124,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
